--- a/output/Resultados/6.Descriptivos/3a.TamMuestra_Trimestre.xlsx
+++ b/output/Resultados/6.Descriptivos/3a.TamMuestra_Trimestre.xlsx
@@ -374,7 +374,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="5">
@@ -398,7 +398,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="6">
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="7">
@@ -414,7 +414,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="8">
@@ -422,7 +422,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="9">
@@ -430,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="10">
@@ -438,7 +438,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="11">
@@ -446,7 +446,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="12">
@@ -454,7 +454,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="13">
@@ -462,7 +462,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="14">
@@ -470,7 +470,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="15">
@@ -478,7 +478,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="16">
@@ -486,7 +486,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="17">
@@ -494,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="18">
@@ -502,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="19">
@@ -510,7 +510,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="20">
@@ -518,7 +518,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="21">
@@ -526,7 +526,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="22">
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="23">
@@ -542,7 +542,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="24">
@@ -550,7 +550,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="25">
@@ -558,7 +558,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="26">
@@ -566,7 +566,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="27">
@@ -574,7 +574,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="28">
@@ -582,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="29">
@@ -590,7 +590,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="30">
@@ -598,7 +598,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="31">
@@ -606,7 +606,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="32">
@@ -614,7 +614,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="33">
@@ -622,7 +622,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="34">
@@ -630,7 +630,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="35">
@@ -638,7 +638,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="36">
@@ -646,7 +646,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="37">
@@ -654,7 +654,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="38">
@@ -662,7 +662,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="39">
@@ -670,7 +670,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="40">
@@ -678,7 +678,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="41">
@@ -686,7 +686,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="42">
@@ -694,7 +694,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="43">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="44">
@@ -710,7 +710,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="45">
@@ -718,7 +718,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="46">
@@ -726,7 +726,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="48">
@@ -742,7 +742,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="49">
@@ -750,7 +750,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="50">
@@ -758,7 +758,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="51">
@@ -766,7 +766,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="52">
@@ -774,7 +774,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="53">
@@ -782,7 +782,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="54">
@@ -790,7 +790,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="55">
@@ -798,7 +798,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="56">
@@ -806,7 +806,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="57">
@@ -814,7 +814,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="58">
@@ -822,7 +822,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="59">
@@ -830,7 +830,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="60">
@@ -838,7 +838,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="61">
@@ -846,7 +846,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2556</v>
+        <v>2565</v>
       </c>
     </row>
   </sheetData>
